--- a/uploads/EspecificoCategoria/especificocategoria.xlsx
+++ b/uploads/EspecificoCategoria/especificocategoria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto26/Proyecto16/Proyecto11/proyecto2/uploads/EspecificoCategoria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/EspecificoCategoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{9A3E63C7-4532-48DA-8BC7-CE9B5CA63D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCC5A1D6-64EC-4392-8BCD-2D9CA6C60967}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{9A3E63C7-4532-48DA-8BC7-CE9B5CA63D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5565287D-33C3-413C-A200-98C38951DA7C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FA59036C-7AD2-4F79-8F14-21390BA91251}"/>
   </bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F603917A-E2B0-40C0-A27F-A7DDFAABA413}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>14</v>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>14</v>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>12</v>
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>14</v>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>12</v>
@@ -691,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>12</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>12</v>
@@ -911,7 +911,7 @@
         <v>13</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -931,7 +931,7 @@
         <v>13</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E27">
         <v>14</v>
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E28">
         <v>14</v>
@@ -1048,7 +1048,7 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E29">
         <v>14</v>
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E30">
         <v>14</v>
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E31">
         <v>12</v>
@@ -1108,7 +1108,7 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E32">
         <v>14</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E33">
         <v>14</v>
@@ -1148,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E34">
         <v>14</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E35">
         <v>14</v>
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E36">
         <v>12</v>
@@ -1208,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         <v>671</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E38">
         <v>12</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E39">
         <v>12</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E41">
         <v>14</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E42">
         <v>12</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E43">
         <v>14</v>
@@ -1348,7 +1348,7 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>14</v>
@@ -1368,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E45">
         <v>14</v>
@@ -1388,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E46">
         <v>14</v>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E47">
         <v>14</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E48">
         <v>12</v>
@@ -1448,7 +1448,7 @@
         <v>5</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E49">
         <v>14</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -1488,7 +1488,7 @@
         <v>4680</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E51">
         <v>14</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>11</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E56">
         <v>1</v>
